--- a/Projects/DELMONTEUS/Data/DelMonte_KPI Template v0.3.xlsx
+++ b/Projects/DELMONTEUS/Data/DelMonte_KPI Template v0.3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="12"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,6 +21,7 @@
     <sheet name="Relative Position" sheetId="11" state="visible" r:id="rId12"/>
     <sheet name="Same Aisle" sheetId="12" state="visible" r:id="rId13"/>
     <sheet name="Shelf Region" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="Multi Block" sheetId="14" state="visible" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$E$95</definedName>
@@ -28,6 +29,8 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">KPIs!$A$1:$E$95</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">KPIs!$A$1:$E$95</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$E$95</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs!$A$1:$E$95</definedName>
+    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">'Shelf Placement'!$A$1:$F$34</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="192">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -86,159 +89,162 @@
     <t xml:space="preserve">Is the Canned Vegetable brand blocked?</t>
   </si>
   <si>
+    <t xml:space="preserve">Multi Block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What % of Del Monte facings are blocked vertically?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blocking Percent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What % of Del Monte facings are blocked horizontally?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What % of Green Giant facings are blocked vertically?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What % of Green Giant facings are blocked horizontally?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is Del Monte Specialty Veg integrated within Del Monte Core Veg?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integrated Core KPI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is Specialty Veg integrated within Core Veg?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are the majority of Del Monte Spec Veg Shelved together?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are the majority of Private Label Spec Veg Shelved together?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are the majority of Green Giant Spec Veg Shelved together?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are the majority of Spec Veg Shelved together?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are the majority of Multipacks shelved together?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are the Majority of Family Size Shelved together?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are the majority of Del Monte Spec Veg blocked above Del Monte Core Veg?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relative Position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are the majority of Private Label Spec Veg blocked above Private Label Core Veg?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are the majority of Green Giant Spec Veg blocked above Green Giant Core Veg?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is majority of Specialty Veg shelved above Core Veg?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are Multipacks shelved with the smaller size Veg Type?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are Family Packs shelved with their same Veg Type?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What % of Del Monte Facings are Shelved on the Left?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shelf Region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What % of Del Monte Facings are Shelved in the Center?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What % of Del Monte Facings are Shelved on the Right?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What % of Del Monte facings are on the top shelf?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shelf Placement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What % of Del Monte facings are shelved at eye level?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What % of Del Monte facings are on middle shelves?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What % of Del Monte facings are on the bottom shelf?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is Canned Veg category linear footage?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOS Linear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is Del Monte Canned Veg linear footage?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are Del Monte AFC adjacent to Squeezers?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canned Fruits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are PFC shelved between Canned and Squeezers?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are Del Monte AFCs blocked adjacent to other Del Monte PFCs?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does Del Monte lead the COS Fruit Section?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does Plastic Fruit Cup lead the Fruit Section on the Left?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does Plastic Fruit Cup lead the Fruit Section on the Right?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does Multi Serve Core Fruit lead the Fruit Section on the Left?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does Multi Serve Core Fruit lead the Fruit Section on the Right?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does Family Size lead the Fruit Section on the Left?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does Family Size lead the Fruit Section on the Right?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does Canned Pineapple (excl #10) lead the Fruit Section on the Left?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does Canned Pineapple (excl #10) lead the Fruit Section on the Right?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does Buffet lead the Fruit Section on the Left?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does Buffet lead the Fruit Section on the Right?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is single serve AND multi serve blocked separately?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Blocked Together</t>
   </si>
   <si>
-    <t xml:space="preserve">What % of Del Monte facings are blocked vertically?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blocking Percent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What % of Del Monte facings are blocked horizontally?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What % of Green Giant facings are blocked vertically?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What % of Green Giant facings are blocked horizontally?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is Del Monte Specialty Veg integrated within Del Monte Core Veg?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Integrated Core KPI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is Specialty Veg integrated within Core Veg?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Are the majority of Del Monte Spec Veg Shelved together?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Are the majority of Private Label Spec Veg Shelved together?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Are the majority of Green Giant Spec Veg Shelved together?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Are the majority of Spec Veg Shelved together?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Are the majority of Multipacks shelved together?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Are the Majority of Family Size Shelved together?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Are the majority of Del Monte Spec Veg blocked above Del Monte Core Veg?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Relative Position</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Are the majority of Private Label Spec Veg blocked above Private Label Core Veg?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Are the majority of Green Giant Spec Veg blocked above Green Giant Core Veg?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is majority of Specialty Veg shelved above Core Veg?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Are Multipacks shelved with the smaller size Veg Type?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Are Family Packs shelved with their same Veg Type?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What % of Del Monte Facings are Shelved on the Left?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shelf Region</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What % of Del Monte Facings are Shelved in the Center?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What % of Del Monte Facings are Shelved on the Right?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What % of Del Monte facings are on the top shelf?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shelf Placement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What % of Del Monte facings are shelved at eye level?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What % of Del Monte facings are on middle shelves?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What % of Del Monte facings are on the bottom shelf?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What is Canned Veg category linear footage?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOS Linear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What is Del Monte Canned Veg linear footage?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Are Del Monte AFC adjacent to Squeezers?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Canned Fruits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Are PFC shelved between Canned and Squeezers?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sequence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Are Del Monte AFCs blocked adjacent to other Del Monte PFCs?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Does Del Monte lead the COS Fruit Section?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Does Plastic Fruit Cup lead the Fruit Section on the Left?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Does Plastic Fruit Cup lead the Fruit Section on the Right?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Does Multi Serve Core Fruit lead the Fruit Section on the Left?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Does Multi Serve Core Fruit lead the Fruit Section on the Right?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Does Family Size lead the Fruit Section on the Left?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Does Family Size lead the Fruit Section on the Right?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Does Canned Pineapple (excl #10) lead the Fruit Section on the Left?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Does Canned Pineapple (excl #10) lead the Fruit Section on the Right?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Does Buffet lead the Fruit Section on the Left?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Does Buffet lead the Fruit Section on the Right?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is single serve AND multi serve blocked separately?</t>
-  </si>
-  <si>
     <t xml:space="preserve">Is COS Fruit brand blocked?</t>
   </si>
   <si>
@@ -425,193 +431,193 @@
     <t xml:space="preserve">Denominator Param 1</t>
   </si>
   <si>
+    <t xml:space="preserve">Denominator Value 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shelf_Presence_Minimum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DLM_BRAND(C)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEL MONTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">left, right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COS Fruit Segments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plastic Fruit Cup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">left</t>
+  </si>
+  <si>
+    <t xml:space="preserve">right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multi Serve Core Fruit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Family Size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canned Pineapple (excl #10)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buffet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Param 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Param 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MULTIPK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MULTIPACK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DLM_ VEGSZ(C)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAMILY LARGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRUIT TYPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APPLESAUCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMF_SRV SIZE(C)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MLTI-SRV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SGL-SRV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PINEAPPLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VEG_SEG(C)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRIVATE LABEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GREEN GIANT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orientation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vertical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">horizontal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denominator Param 2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Denominator Value 2</t>
   </si>
   <si>
-    <t xml:space="preserve">Edges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shelf_Presence_Minimum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DLM_BRAND(C)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEL MONTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">left, right</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COS Fruit Segments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plastic Fruit Cup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">left</t>
-  </si>
-  <si>
-    <t xml:space="preserve">right</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multi Serve Core Fruit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Family Size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Canned Pineapple (excl #10)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buffet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Param 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Param 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MULTIPK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MULTIPACK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DLM_ VEGSZ(C)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FAMILY LARGE</t>
+    <t xml:space="preserve">CORE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">top, bottom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AFC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Param 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Value 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B Param 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B Value 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VEG_TYPE(C)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">left,right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Top</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Middle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bottom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMF_FRT_TYPE(C)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRANBERRY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inverse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SGL-SRV, MLTI-SRV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">above</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Numerator Param 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Numerator Value 2</t>
   </si>
   <si>
     <t xml:space="preserve">DEL MONTE, DOLE, PRIVATE LABEL</t>
   </si>
   <si>
-    <t xml:space="preserve">FRUIT TYPE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APPLESAUCE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DMF_SRV SIZE(C)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MLTI-SRV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SGL-SRV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PINEAPPLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VEG_SEG(C)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPEC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRIVATE LABEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GREEN GIANT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orientation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vertical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">horizontal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Denominator Param 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CORE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">top, bottom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AFC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Param 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Value 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B Param 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B Value 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VEG_TYPE(C)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">left,right</t>
-  </si>
-  <si>
-    <t xml:space="preserve">center</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Top</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eye</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Middle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bottom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DMF_FRT_TYPE(C)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRANBERRY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inverse</t>
-  </si>
-  <si>
     <t xml:space="preserve">LIBBY'S,GREEN GIANT,DEL MONTE,PRIVATE LABEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SGL-SRV, MLTI-SRV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Position</t>
-  </si>
-  <si>
-    <t xml:space="preserve">above</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Numerator Param 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Numerator Value 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Denominator Value 1</t>
   </si>
 </sst>
 </file>
@@ -704,14 +710,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFF33FF"/>
+        <bgColor rgb="FFFF00CC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF33FF"/>
-        <bgColor rgb="FFFF00CC"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -756,7 +762,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="31">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -805,14 +811,6 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -823,18 +821,6 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -853,35 +839,19 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -897,16 +867,24 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -997,23 +975,23 @@
   <dimension ref="A1:E95"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F32" activeCellId="0" sqref="F32"/>
+      <selection pane="bottomLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="66.7333333333333"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="17.5407407407407"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="11.662962962963"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="17.0518518518519"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="16.3666666666667"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="12.1518518518519"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="16.3666666666667"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="11.7592592592593"/>
-    <col collapsed="false" hidden="false" max="1021" min="9" style="2" width="12.1518518518519"/>
-    <col collapsed="false" hidden="false" max="1025" min="1022" style="2" width="9.21111111111111"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="68.4"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="17.9333333333333"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="11.9555555555556"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="17.3444444444444"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="16.7555555555556"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="12.3481481481481"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="16.7555555555556"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="12.0518518518519"/>
+    <col collapsed="false" hidden="false" max="1021" min="9" style="2" width="12.3481481481481"/>
+    <col collapsed="false" hidden="false" max="1025" min="1022" style="2" width="9.40740740740741"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1649,7 +1627,7 @@
         <v>65</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
@@ -1657,12 +1635,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
@@ -1670,12 +1648,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
@@ -1683,12 +1661,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
@@ -1698,7 +1676,7 @@
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>9</v>
@@ -1711,7 +1689,7 @@
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>9</v>
@@ -1724,7 +1702,7 @@
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>9</v>
@@ -1737,7 +1715,7 @@
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>17</v>
@@ -1750,7 +1728,7 @@
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>17</v>
@@ -1763,7 +1741,7 @@
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>17</v>
@@ -1776,7 +1754,7 @@
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>17</v>
@@ -1789,7 +1767,7 @@
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>22</v>
@@ -1802,10 +1780,10 @@
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
@@ -1815,7 +1793,7 @@
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>42</v>
@@ -1828,7 +1806,7 @@
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>42</v>
@@ -1841,7 +1819,7 @@
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>42</v>
@@ -1854,7 +1832,7 @@
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>42</v>
@@ -1867,7 +1845,7 @@
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>42</v>
@@ -1880,7 +1858,7 @@
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>42</v>
@@ -1893,7 +1871,7 @@
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>42</v>
@@ -1906,7 +1884,7 @@
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>42</v>
@@ -1919,7 +1897,7 @@
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>42</v>
@@ -1932,7 +1910,7 @@
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>22</v>
@@ -1945,7 +1923,7 @@
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B72" s="6" t="s">
         <v>31</v>
@@ -1958,7 +1936,7 @@
     </row>
     <row r="73" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B73" s="6" t="s">
         <v>38</v>
@@ -1971,7 +1949,7 @@
     </row>
     <row r="74" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>38</v>
@@ -1984,7 +1962,7 @@
     </row>
     <row r="75" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B75" s="6" t="s">
         <v>38</v>
@@ -1997,7 +1975,7 @@
     </row>
     <row r="76" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B76" s="6" t="s">
         <v>38</v>
@@ -2010,7 +1988,7 @@
     </row>
     <row r="77" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B77" s="6" t="s">
         <v>38</v>
@@ -2023,7 +2001,7 @@
     </row>
     <row r="78" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>38</v>
@@ -2036,7 +2014,7 @@
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B79" s="6" t="s">
         <v>42</v>
@@ -2049,7 +2027,7 @@
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B80" s="6" t="s">
         <v>42</v>
@@ -2062,7 +2040,7 @@
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B81" s="6" t="s">
         <v>42</v>
@@ -2075,7 +2053,7 @@
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B82" s="6" t="s">
         <v>42</v>
@@ -2088,7 +2066,7 @@
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B83" s="6" t="s">
         <v>42</v>
@@ -2101,7 +2079,7 @@
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B84" s="6" t="s">
         <v>42</v>
@@ -2114,7 +2092,7 @@
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B85" s="6" t="s">
         <v>42</v>
@@ -2127,7 +2105,7 @@
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B86" s="6" t="s">
         <v>42</v>
@@ -2140,7 +2118,7 @@
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B87" s="6" t="s">
         <v>42</v>
@@ -2153,7 +2131,7 @@
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B88" s="6" t="s">
         <v>42</v>
@@ -2166,7 +2144,7 @@
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B89" s="6" t="s">
         <v>42</v>
@@ -2179,7 +2157,7 @@
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B90" s="5" t="s">
         <v>47</v>
@@ -2192,7 +2170,7 @@
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B91" s="5" t="s">
         <v>47</v>
@@ -2205,7 +2183,7 @@
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B92" s="5" t="s">
         <v>47</v>
@@ -2218,7 +2196,7 @@
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B93" s="5" t="s">
         <v>47</v>
@@ -2231,7 +2209,7 @@
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B94" s="5" t="s">
         <v>47</v>
@@ -2244,7 +2222,7 @@
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B95" s="5" t="s">
         <v>47</v>
@@ -2273,70 +2251,56 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:3"/>
+  <dimension ref="1:65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="16" width="54.5814814814815"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="16" width="30.0851851851852"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="16" width="44.1962962962963"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="16" width="8.81851851851852"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="14" width="55.9555555555556"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="14" width="30.8666666666667"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="14" width="45.2740740740741"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="14" width="9.01481481481481"/>
   </cols>
   <sheetData>
-    <row r="1" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="AME1" s="16"/>
-      <c r="AMF1" s="16"/>
-      <c r="AMG1" s="16"/>
-      <c r="AMH1" s="16"/>
-      <c r="AMI1" s="16"/>
-      <c r="AMJ1" s="16"/>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="C2" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="D2" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="0"/>
-    </row>
-    <row r="3" customFormat="false" ht="15.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="17" t="s">
+      <c r="AME1" s="14"/>
+      <c r="AMF1" s="14"/>
+      <c r="AMG1" s="14"/>
+      <c r="AMH1" s="14"/>
+      <c r="AMI1" s="14"/>
+      <c r="AMJ1" s="14"/>
+    </row>
+    <row r="2" customFormat="false" ht="15.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B2" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C2" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="D3" s="17" t="n">
+      <c r="D2" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="E3" s="15"/>
-    </row>
+      <c r="E2" s="13"/>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2361,196 +2325,196 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="16" width="66.7333333333333"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="16" width="14.4037037037037"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="16" width="8.23333333333333"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="16" width="13.3259259259259"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="16" width="12.4444444444444"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="16" width="10.9740740740741"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="16" width="12.4444444444444"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="16" width="13.3259259259259"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="16" width="12.4444444444444"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="16" width="7.34814814814815"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="16" width="8.81851851851852"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="14" width="68.4"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="14" width="14.7"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="14" width="8.32962962962963"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="14" width="13.6222222222222"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="14" width="12.6407407407407"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="14" width="11.2703703703704"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="14" width="12.6407407407407"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="14" width="13.6222222222222"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="14" width="12.6407407407407"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="14" width="7.44814814814815"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="14" width="9.01481481481481"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="C1" s="22" t="s">
+      <c r="B1" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="E1" s="22" t="s">
+      <c r="C1" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="F1" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="G1" s="22" t="s">
+      <c r="E1" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="H1" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="I1" s="22" t="s">
+      <c r="G1" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="H1" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="I1" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="J1" s="17" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="D2" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="E2" s="36" t="s">
+      <c r="D2" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="E2" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="F2" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="G2" s="37" t="s">
-        <v>166</v>
-      </c>
-      <c r="H2" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="I2" s="36" t="s">
+      <c r="G2" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="H2" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="J2" s="36" t="s">
+      <c r="I2" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="J2" s="18" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="D3" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="E3" s="36" t="s">
+      <c r="D3" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="E3" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="G3" s="37" t="s">
-        <v>166</v>
-      </c>
-      <c r="H3" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="I3" s="36" t="s">
+      <c r="G3" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="I3" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="J3" s="36" t="s">
+      <c r="J3" s="18" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="D4" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="E4" s="36" t="s">
+      <c r="D4" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="E4" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="F4" s="37" t="s">
+      <c r="F4" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="G4" s="37" t="s">
-        <v>166</v>
-      </c>
-      <c r="H4" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="I4" s="36" t="s">
+      <c r="G4" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="I4" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="J4" s="36" t="s">
+      <c r="J4" s="18" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="37" t="s">
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="G5" s="37" t="s">
-        <v>166</v>
-      </c>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36" t="s">
+      <c r="G5" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="36" t="s">
-        <v>89</v>
-      </c>
-      <c r="B6" s="36" t="s">
+      <c r="A6" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="F6" s="36" t="s">
-        <v>122</v>
-      </c>
-      <c r="G6" s="37" t="s">
+      <c r="F6" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="36" t="s">
+      <c r="G6" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="18" t="s">
         <v>187</v>
       </c>
     </row>
@@ -2578,10 +2542,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49.2925925925926"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.84074074074074"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.9740740740741"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.81851851851852"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="50.5666666666667"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.93703703703704"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.2703703703704"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.01481481481481"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2589,21 +2553,21 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="2" s="15" customFormat="true" ht="15.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="17" t="s">
-        <v>77</v>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" s="13" customFormat="true" ht="15.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="s">
+        <v>78</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2624,21 +2588,21 @@
   </sheetPr>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="29.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="50.2962962962963"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.4814814814815"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.9407407407407"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.6111111111111"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.2148148148148"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.1148148148148"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.2259259259259"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.5925925925926"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.36296296296296"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="51.5444444444444"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.9333333333333"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.2481481481481"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.0296296296296"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.6407407407407"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.5592592592593"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.6962962962963"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.9740740740741"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.52592592592593"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="56.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2646,10 +2610,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>188</v>
@@ -2658,10 +2622,10 @@
         <v>189</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>190</v>
+        <v>129</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>42</v>
@@ -2672,21 +2636,21 @@
         <v>37</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
       <c r="F2" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="18" t="s">
-        <v>137</v>
+      <c r="H2" s="10" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="29.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2694,21 +2658,21 @@
         <v>39</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
       <c r="F3" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="18" t="s">
-        <v>176</v>
+      <c r="H3" s="10" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="29.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2716,179 +2680,293 @@
         <v>40</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="18" t="s">
-        <v>138</v>
+      <c r="H4" s="10" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="29.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>137</v>
+        <v>123</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="29.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>138</v>
+        <v>123</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="29.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>176</v>
+        <v>123</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="43.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E8" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="F8" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>137</v>
+      <c r="H8" s="10" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="43.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E9" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="F9" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>138</v>
+      <c r="H9" s="10" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="43.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C10" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>177</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.9037037037037"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.3925925925926"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.8777777777778"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.2407407407407"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.8074074074074"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.36296296296296"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="28.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="C2" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="28.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="28.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="D4" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="E10" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="G10" s="5" t="s">
+      <c r="E4" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="H10" s="18" t="s">
-        <v>176</v>
-      </c>
-    </row>
+    </row>
+    <row r="5" customFormat="false" ht="82.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2905,7 +2983,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:2"/>
+  <dimension ref="A1:AMI2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
@@ -2913,14 +2991,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="56.2481481481481"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="15.8740740740741"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="10.3888888888889"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="7" width="15.8740740740741"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="7" width="10.2888888888889"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="7" width="11.8555555555556"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="7" width="13.2296296296296"/>
-    <col collapsed="false" hidden="false" max="1023" min="8" style="7" width="11.9555555555556"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="57.6222222222222"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="16.2666666666667"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="10.5851851851852"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="7" width="16.2666666666667"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="7" width="10.4851851851852"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="7" width="12.1518518518519"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="7" width="13.5222222222222"/>
+    <col collapsed="false" hidden="false" max="1023" min="8" style="7" width="12.2481481481481"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.62222222222222"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2928,22 +3007,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>52</v>
@@ -3964,32 +4043,31 @@
       <c r="AMH1" s="0"/>
       <c r="AMI1" s="0"/>
     </row>
-    <row r="2" s="12" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
         <v>51</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="AMJ2" s="13"/>
+        <v>125</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4009,318 +4087,318 @@
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="14" width="61.637037037037"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="15" width="20.1851851851852"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="15" width="25.2814814814815"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="15" width="21.0703703703704"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="15" width="8.52592592592593"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="15" width="23.7148148148148"/>
-    <col collapsed="false" hidden="false" max="1023" min="8" style="16" width="69.1851851851852"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.62222222222222"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="12" width="63.1074074074074"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="20.6777777777778"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="25.8703703703704"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="13" width="21.5592592592593"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="8.62222222222222"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="13" width="24.3037037037037"/>
+    <col collapsed="false" hidden="false" max="1023" min="8" style="14" width="70.9481481481482"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.81851851851852"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="C2" s="17" t="s">
+      <c r="B2" s="10" t="s">
         <v>132</v>
       </c>
+      <c r="C2" s="9" t="s">
+        <v>133</v>
+      </c>
       <c r="D2" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="G2" s="15" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="G2" s="19" t="n">
+      <c r="E3" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="G3" s="15" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F3" s="10" t="s">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="G3" s="20" t="n">
+      <c r="E4" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="G4" s="15" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="C4" s="18" t="s">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F4" s="18" t="s">
+      <c r="C5" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="G4" s="19" t="n">
+      <c r="D5" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="G5" s="15" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="C5" s="18" t="s">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F5" s="18" t="s">
+      <c r="C6" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="G5" s="19" t="n">
+      <c r="G6" s="15" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="C6" s="18" t="s">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F7" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="D6" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="G6" s="19" t="n">
+      <c r="G7" s="15" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="C7" s="18" t="s">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="G8" s="15" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="D7" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F7" s="18" t="s">
+      <c r="G9" s="15" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="G7" s="19" t="n">
+      <c r="G10" s="15" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="G8" s="19" t="n">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="G11" s="15" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F9" s="18" t="s">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F12" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="G9" s="19" t="n">
+      <c r="G12" s="15" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="G10" s="19" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="G11" s="19" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="G12" s="19" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>142</v>
+      <c r="B13" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>143</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="G13" s="19" t="n">
+        <v>123</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="G13" s="15" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -4340,258 +4418,210 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="21" width="50.2703703703704"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="15" width="16.462962962963"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="15" width="12.4444444444444"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="15" width="14.4037037037037"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="15" width="28.0259259259259"/>
-    <col collapsed="false" hidden="false" max="1019" min="6" style="15" width="12.1518518518519"/>
-    <col collapsed="false" hidden="false" max="1025" min="1020" style="0" width="8.62222222222222"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="16" width="51.5444444444444"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="16.8555555555556"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="12.6407407407407"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="14.7"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="28.7111111111111"/>
+    <col collapsed="false" hidden="false" max="1019" min="6" style="13" width="12.3481481481481"/>
+    <col collapsed="false" hidden="false" max="1025" min="1020" style="0" width="8.81851851851852"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="C2" s="17" t="s">
+      <c r="B2" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
+      <c r="C2" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
     </row>
     <row r="3" customFormat="false" ht="15.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+    </row>
+    <row r="4" customFormat="false" ht="15.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" customFormat="false" ht="15.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" customFormat="false" ht="15.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-    </row>
-    <row r="4" customFormat="false" ht="15.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="E4" s="27" t="s">
+      <c r="C12" s="9" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-    </row>
-    <row r="14" customFormat="false" ht="15.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-    </row>
-    <row r="15" customFormat="false" ht="15.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-    </row>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+    </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -4616,11 +4646,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="46.8407407407407"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.3259259259259"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.4444444444444"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.0925925925926"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.52592592592593"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="47.9185185185185"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.6222222222222"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.6407407407407"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.2888888888889"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.62222222222222"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4628,124 +4658,124 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="C2" s="17" t="s">
+      <c r="B2" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="C2" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="C3" s="17" t="s">
+      <c r="B3" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="C3" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="C4" s="17" t="s">
+      <c r="B4" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="10" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="C5" s="17" t="s">
+      <c r="B5" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="10" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="D6" s="17" t="s">
+      <c r="A6" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="D7" s="17" t="s">
+      <c r="A7" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="C8" s="18" t="s">
+      <c r="A8" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="C8" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="C9" s="18" t="s">
+      <c r="A9" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="C9" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>163</v>
       </c>
     </row>
@@ -4767,22 +4797,22 @@
   </sheetPr>
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="16" width="54.5814814814815"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="16" width="16.3666666666667"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="16" width="15.9740740740741"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="16" width="16.3666666666667"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="16" width="15.9740740740741"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="16" width="18.3259259259259"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="16" width="17.9333333333333"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="16" width="18.3259259259259"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="16" width="17.9333333333333"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="16" width="12.1518518518519"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="14" width="55.9555555555556"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="14" width="16.7555555555556"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="14" width="16.3666666666667"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="14" width="16.7555555555556"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="14" width="16.3666666666667"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="14" width="18.7185185185185"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="14" width="18.3259259259259"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="14" width="18.7185185185185"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="14" width="18.3259259259259"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="14" width="12.3481481481481"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4790,31 +4820,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>125</v>
-      </c>
       <c r="E1" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>165</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>165</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4828,25 +4858,25 @@
         <v>159</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>158</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>167</v>
+        <v>133</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4865,68 +4895,68 @@
         <v>158</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
-      <c r="J3" s="18" t="s">
-        <v>167</v>
+      <c r="J3" s="10" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
-      <c r="J4" s="18" t="s">
-        <v>167</v>
+      <c r="J4" s="10" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C5" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>119</v>
-      </c>
       <c r="E5" s="10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="5"/>
-      <c r="J5" s="18" t="s">
-        <v>167</v>
+      <c r="J5" s="10" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -4953,18 +4983,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="16" width="59.8740740740741"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="16" width="13.3259259259259"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="16" width="11.9555555555556"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="16" width="13.3259259259259"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="16" width="9.8962962962963"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="16" width="14.7962962962963"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="16" width="9.8962962962963"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="16" width="14.7962962962963"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="16" width="9.7"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="16" width="7.84074074074074"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="16" width="15.7777777777778"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="16" width="12.1518518518519"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="14" width="61.4407407407408"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="14" width="13.6222222222222"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="14" width="12.2481481481481"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="14" width="13.6222222222222"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="14" width="10.0925925925926"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="14" width="15.0925925925926"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="14" width="10.0925925925926"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="14" width="15.0925925925926"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="14" width="9.8962962962963"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="14" width="7.93703703703704"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="14" width="16.1703703703704"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="14" width="12.3481481481481"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4972,31 +5002,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K1" s="0"/>
       <c r="L1" s="0"/>
@@ -6014,26 +6044,26 @@
       <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="C2" s="28" t="s">
+      <c r="B2" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D2" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="E2" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
+      <c r="C2" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
       <c r="K2" s="0"/>
       <c r="L2" s="0"/>
       <c r="M2" s="0"/>
@@ -7050,24 +7080,24 @@
       <c r="AMJ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="C3" s="28" t="s">
+      <c r="B3" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="D3" s="29" t="s">
-        <v>174</v>
-      </c>
-      <c r="E3" s="29"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="C3" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="E3" s="20"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
       <c r="K3" s="0"/>
       <c r="L3" s="0"/>
       <c r="M3" s="0"/>
@@ -8083,76 +8113,1090 @@
       <c r="AMI3" s="0"/>
       <c r="AMJ3" s="0"/>
     </row>
-    <row r="4" s="32" customFormat="true" ht="15.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="28" t="s">
+    <row r="4" s="23" customFormat="true" ht="15.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="C4" s="28" t="s">
+      <c r="B4" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D4" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="AMI4" s="33"/>
-      <c r="AMJ4" s="33"/>
-    </row>
-    <row r="5" s="13" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="28" t="s">
+      <c r="C4" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="AMI4" s="24"/>
+      <c r="AMJ4" s="24"/>
+    </row>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="C5" s="28" t="s">
+      <c r="B5" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="D5" s="29" t="s">
-        <v>174</v>
-      </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-    </row>
-    <row r="6" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="E5" s="20"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="0"/>
+      <c r="L5" s="0"/>
+      <c r="M5" s="0"/>
+      <c r="N5" s="0"/>
+      <c r="O5" s="0"/>
+      <c r="P5" s="0"/>
+      <c r="Q5" s="0"/>
+      <c r="R5" s="0"/>
+      <c r="S5" s="0"/>
+      <c r="T5" s="0"/>
+      <c r="U5" s="0"/>
+      <c r="V5" s="0"/>
+      <c r="W5" s="0"/>
+      <c r="X5" s="0"/>
+      <c r="Y5" s="0"/>
+      <c r="Z5" s="0"/>
+      <c r="AA5" s="0"/>
+      <c r="AB5" s="0"/>
+      <c r="AC5" s="0"/>
+      <c r="AD5" s="0"/>
+      <c r="AE5" s="0"/>
+      <c r="AF5" s="0"/>
+      <c r="AG5" s="0"/>
+      <c r="AH5" s="0"/>
+      <c r="AI5" s="0"/>
+      <c r="AJ5" s="0"/>
+      <c r="AK5" s="0"/>
+      <c r="AL5" s="0"/>
+      <c r="AM5" s="0"/>
+      <c r="AN5" s="0"/>
+      <c r="AO5" s="0"/>
+      <c r="AP5" s="0"/>
+      <c r="AQ5" s="0"/>
+      <c r="AR5" s="0"/>
+      <c r="AS5" s="0"/>
+      <c r="AT5" s="0"/>
+      <c r="AU5" s="0"/>
+      <c r="AV5" s="0"/>
+      <c r="AW5" s="0"/>
+      <c r="AX5" s="0"/>
+      <c r="AY5" s="0"/>
+      <c r="AZ5" s="0"/>
+      <c r="BA5" s="0"/>
+      <c r="BB5" s="0"/>
+      <c r="BC5" s="0"/>
+      <c r="BD5" s="0"/>
+      <c r="BE5" s="0"/>
+      <c r="BF5" s="0"/>
+      <c r="BG5" s="0"/>
+      <c r="BH5" s="0"/>
+      <c r="BI5" s="0"/>
+      <c r="BJ5" s="0"/>
+      <c r="BK5" s="0"/>
+      <c r="BL5" s="0"/>
+      <c r="BM5" s="0"/>
+      <c r="BN5" s="0"/>
+      <c r="BO5" s="0"/>
+      <c r="BP5" s="0"/>
+      <c r="BQ5" s="0"/>
+      <c r="BR5" s="0"/>
+      <c r="BS5" s="0"/>
+      <c r="BT5" s="0"/>
+      <c r="BU5" s="0"/>
+      <c r="BV5" s="0"/>
+      <c r="BW5" s="0"/>
+      <c r="BX5" s="0"/>
+      <c r="BY5" s="0"/>
+      <c r="BZ5" s="0"/>
+      <c r="CA5" s="0"/>
+      <c r="CB5" s="0"/>
+      <c r="CC5" s="0"/>
+      <c r="CD5" s="0"/>
+      <c r="CE5" s="0"/>
+      <c r="CF5" s="0"/>
+      <c r="CG5" s="0"/>
+      <c r="CH5" s="0"/>
+      <c r="CI5" s="0"/>
+      <c r="CJ5" s="0"/>
+      <c r="CK5" s="0"/>
+      <c r="CL5" s="0"/>
+      <c r="CM5" s="0"/>
+      <c r="CN5" s="0"/>
+      <c r="CO5" s="0"/>
+      <c r="CP5" s="0"/>
+      <c r="CQ5" s="0"/>
+      <c r="CR5" s="0"/>
+      <c r="CS5" s="0"/>
+      <c r="CT5" s="0"/>
+      <c r="CU5" s="0"/>
+      <c r="CV5" s="0"/>
+      <c r="CW5" s="0"/>
+      <c r="CX5" s="0"/>
+      <c r="CY5" s="0"/>
+      <c r="CZ5" s="0"/>
+      <c r="DA5" s="0"/>
+      <c r="DB5" s="0"/>
+      <c r="DC5" s="0"/>
+      <c r="DD5" s="0"/>
+      <c r="DE5" s="0"/>
+      <c r="DF5" s="0"/>
+      <c r="DG5" s="0"/>
+      <c r="DH5" s="0"/>
+      <c r="DI5" s="0"/>
+      <c r="DJ5" s="0"/>
+      <c r="DK5" s="0"/>
+      <c r="DL5" s="0"/>
+      <c r="DM5" s="0"/>
+      <c r="DN5" s="0"/>
+      <c r="DO5" s="0"/>
+      <c r="DP5" s="0"/>
+      <c r="DQ5" s="0"/>
+      <c r="DR5" s="0"/>
+      <c r="DS5" s="0"/>
+      <c r="DT5" s="0"/>
+      <c r="DU5" s="0"/>
+      <c r="DV5" s="0"/>
+      <c r="DW5" s="0"/>
+      <c r="DX5" s="0"/>
+      <c r="DY5" s="0"/>
+      <c r="DZ5" s="0"/>
+      <c r="EA5" s="0"/>
+      <c r="EB5" s="0"/>
+      <c r="EC5" s="0"/>
+      <c r="ED5" s="0"/>
+      <c r="EE5" s="0"/>
+      <c r="EF5" s="0"/>
+      <c r="EG5" s="0"/>
+      <c r="EH5" s="0"/>
+      <c r="EI5" s="0"/>
+      <c r="EJ5" s="0"/>
+      <c r="EK5" s="0"/>
+      <c r="EL5" s="0"/>
+      <c r="EM5" s="0"/>
+      <c r="EN5" s="0"/>
+      <c r="EO5" s="0"/>
+      <c r="EP5" s="0"/>
+      <c r="EQ5" s="0"/>
+      <c r="ER5" s="0"/>
+      <c r="ES5" s="0"/>
+      <c r="ET5" s="0"/>
+      <c r="EU5" s="0"/>
+      <c r="EV5" s="0"/>
+      <c r="EW5" s="0"/>
+      <c r="EX5" s="0"/>
+      <c r="EY5" s="0"/>
+      <c r="EZ5" s="0"/>
+      <c r="FA5" s="0"/>
+      <c r="FB5" s="0"/>
+      <c r="FC5" s="0"/>
+      <c r="FD5" s="0"/>
+      <c r="FE5" s="0"/>
+      <c r="FF5" s="0"/>
+      <c r="FG5" s="0"/>
+      <c r="FH5" s="0"/>
+      <c r="FI5" s="0"/>
+      <c r="FJ5" s="0"/>
+      <c r="FK5" s="0"/>
+      <c r="FL5" s="0"/>
+      <c r="FM5" s="0"/>
+      <c r="FN5" s="0"/>
+      <c r="FO5" s="0"/>
+      <c r="FP5" s="0"/>
+      <c r="FQ5" s="0"/>
+      <c r="FR5" s="0"/>
+      <c r="FS5" s="0"/>
+      <c r="FT5" s="0"/>
+      <c r="FU5" s="0"/>
+      <c r="FV5" s="0"/>
+      <c r="FW5" s="0"/>
+      <c r="FX5" s="0"/>
+      <c r="FY5" s="0"/>
+      <c r="FZ5" s="0"/>
+      <c r="GA5" s="0"/>
+      <c r="GB5" s="0"/>
+      <c r="GC5" s="0"/>
+      <c r="GD5" s="0"/>
+      <c r="GE5" s="0"/>
+      <c r="GF5" s="0"/>
+      <c r="GG5" s="0"/>
+      <c r="GH5" s="0"/>
+      <c r="GI5" s="0"/>
+      <c r="GJ5" s="0"/>
+      <c r="GK5" s="0"/>
+      <c r="GL5" s="0"/>
+      <c r="GM5" s="0"/>
+      <c r="GN5" s="0"/>
+      <c r="GO5" s="0"/>
+      <c r="GP5" s="0"/>
+      <c r="GQ5" s="0"/>
+      <c r="GR5" s="0"/>
+      <c r="GS5" s="0"/>
+      <c r="GT5" s="0"/>
+      <c r="GU5" s="0"/>
+      <c r="GV5" s="0"/>
+      <c r="GW5" s="0"/>
+      <c r="GX5" s="0"/>
+      <c r="GY5" s="0"/>
+      <c r="GZ5" s="0"/>
+      <c r="HA5" s="0"/>
+      <c r="HB5" s="0"/>
+      <c r="HC5" s="0"/>
+      <c r="HD5" s="0"/>
+      <c r="HE5" s="0"/>
+      <c r="HF5" s="0"/>
+      <c r="HG5" s="0"/>
+      <c r="HH5" s="0"/>
+      <c r="HI5" s="0"/>
+      <c r="HJ5" s="0"/>
+      <c r="HK5" s="0"/>
+      <c r="HL5" s="0"/>
+      <c r="HM5" s="0"/>
+      <c r="HN5" s="0"/>
+      <c r="HO5" s="0"/>
+      <c r="HP5" s="0"/>
+      <c r="HQ5" s="0"/>
+      <c r="HR5" s="0"/>
+      <c r="HS5" s="0"/>
+      <c r="HT5" s="0"/>
+      <c r="HU5" s="0"/>
+      <c r="HV5" s="0"/>
+      <c r="HW5" s="0"/>
+      <c r="HX5" s="0"/>
+      <c r="HY5" s="0"/>
+      <c r="HZ5" s="0"/>
+      <c r="IA5" s="0"/>
+      <c r="IB5" s="0"/>
+      <c r="IC5" s="0"/>
+      <c r="ID5" s="0"/>
+      <c r="IE5" s="0"/>
+      <c r="IF5" s="0"/>
+      <c r="IG5" s="0"/>
+      <c r="IH5" s="0"/>
+      <c r="II5" s="0"/>
+      <c r="IJ5" s="0"/>
+      <c r="IK5" s="0"/>
+      <c r="IL5" s="0"/>
+      <c r="IM5" s="0"/>
+      <c r="IN5" s="0"/>
+      <c r="IO5" s="0"/>
+      <c r="IP5" s="0"/>
+      <c r="IQ5" s="0"/>
+      <c r="IR5" s="0"/>
+      <c r="IS5" s="0"/>
+      <c r="IT5" s="0"/>
+      <c r="IU5" s="0"/>
+      <c r="IV5" s="0"/>
+      <c r="IW5" s="0"/>
+      <c r="IX5" s="0"/>
+      <c r="IY5" s="0"/>
+      <c r="IZ5" s="0"/>
+      <c r="JA5" s="0"/>
+      <c r="JB5" s="0"/>
+      <c r="JC5" s="0"/>
+      <c r="JD5" s="0"/>
+      <c r="JE5" s="0"/>
+      <c r="JF5" s="0"/>
+      <c r="JG5" s="0"/>
+      <c r="JH5" s="0"/>
+      <c r="JI5" s="0"/>
+      <c r="JJ5" s="0"/>
+      <c r="JK5" s="0"/>
+      <c r="JL5" s="0"/>
+      <c r="JM5" s="0"/>
+      <c r="JN5" s="0"/>
+      <c r="JO5" s="0"/>
+      <c r="JP5" s="0"/>
+      <c r="JQ5" s="0"/>
+      <c r="JR5" s="0"/>
+      <c r="JS5" s="0"/>
+      <c r="JT5" s="0"/>
+      <c r="JU5" s="0"/>
+      <c r="JV5" s="0"/>
+      <c r="JW5" s="0"/>
+      <c r="JX5" s="0"/>
+      <c r="JY5" s="0"/>
+      <c r="JZ5" s="0"/>
+      <c r="KA5" s="0"/>
+      <c r="KB5" s="0"/>
+      <c r="KC5" s="0"/>
+      <c r="KD5" s="0"/>
+      <c r="KE5" s="0"/>
+      <c r="KF5" s="0"/>
+      <c r="KG5" s="0"/>
+      <c r="KH5" s="0"/>
+      <c r="KI5" s="0"/>
+      <c r="KJ5" s="0"/>
+      <c r="KK5" s="0"/>
+      <c r="KL5" s="0"/>
+      <c r="KM5" s="0"/>
+      <c r="KN5" s="0"/>
+      <c r="KO5" s="0"/>
+      <c r="KP5" s="0"/>
+      <c r="KQ5" s="0"/>
+      <c r="KR5" s="0"/>
+      <c r="KS5" s="0"/>
+      <c r="KT5" s="0"/>
+      <c r="KU5" s="0"/>
+      <c r="KV5" s="0"/>
+      <c r="KW5" s="0"/>
+      <c r="KX5" s="0"/>
+      <c r="KY5" s="0"/>
+      <c r="KZ5" s="0"/>
+      <c r="LA5" s="0"/>
+      <c r="LB5" s="0"/>
+      <c r="LC5" s="0"/>
+      <c r="LD5" s="0"/>
+      <c r="LE5" s="0"/>
+      <c r="LF5" s="0"/>
+      <c r="LG5" s="0"/>
+      <c r="LH5" s="0"/>
+      <c r="LI5" s="0"/>
+      <c r="LJ5" s="0"/>
+      <c r="LK5" s="0"/>
+      <c r="LL5" s="0"/>
+      <c r="LM5" s="0"/>
+      <c r="LN5" s="0"/>
+      <c r="LO5" s="0"/>
+      <c r="LP5" s="0"/>
+      <c r="LQ5" s="0"/>
+      <c r="LR5" s="0"/>
+      <c r="LS5" s="0"/>
+      <c r="LT5" s="0"/>
+      <c r="LU5" s="0"/>
+      <c r="LV5" s="0"/>
+      <c r="LW5" s="0"/>
+      <c r="LX5" s="0"/>
+      <c r="LY5" s="0"/>
+      <c r="LZ5" s="0"/>
+      <c r="MA5" s="0"/>
+      <c r="MB5" s="0"/>
+      <c r="MC5" s="0"/>
+      <c r="MD5" s="0"/>
+      <c r="ME5" s="0"/>
+      <c r="MF5" s="0"/>
+      <c r="MG5" s="0"/>
+      <c r="MH5" s="0"/>
+      <c r="MI5" s="0"/>
+      <c r="MJ5" s="0"/>
+      <c r="MK5" s="0"/>
+      <c r="ML5" s="0"/>
+      <c r="MM5" s="0"/>
+      <c r="MN5" s="0"/>
+      <c r="MO5" s="0"/>
+      <c r="MP5" s="0"/>
+      <c r="MQ5" s="0"/>
+      <c r="MR5" s="0"/>
+      <c r="MS5" s="0"/>
+      <c r="MT5" s="0"/>
+      <c r="MU5" s="0"/>
+      <c r="MV5" s="0"/>
+      <c r="MW5" s="0"/>
+      <c r="MX5" s="0"/>
+      <c r="MY5" s="0"/>
+      <c r="MZ5" s="0"/>
+      <c r="NA5" s="0"/>
+      <c r="NB5" s="0"/>
+      <c r="NC5" s="0"/>
+      <c r="ND5" s="0"/>
+      <c r="NE5" s="0"/>
+      <c r="NF5" s="0"/>
+      <c r="NG5" s="0"/>
+      <c r="NH5" s="0"/>
+      <c r="NI5" s="0"/>
+      <c r="NJ5" s="0"/>
+      <c r="NK5" s="0"/>
+      <c r="NL5" s="0"/>
+      <c r="NM5" s="0"/>
+      <c r="NN5" s="0"/>
+      <c r="NO5" s="0"/>
+      <c r="NP5" s="0"/>
+      <c r="NQ5" s="0"/>
+      <c r="NR5" s="0"/>
+      <c r="NS5" s="0"/>
+      <c r="NT5" s="0"/>
+      <c r="NU5" s="0"/>
+      <c r="NV5" s="0"/>
+      <c r="NW5" s="0"/>
+      <c r="NX5" s="0"/>
+      <c r="NY5" s="0"/>
+      <c r="NZ5" s="0"/>
+      <c r="OA5" s="0"/>
+      <c r="OB5" s="0"/>
+      <c r="OC5" s="0"/>
+      <c r="OD5" s="0"/>
+      <c r="OE5" s="0"/>
+      <c r="OF5" s="0"/>
+      <c r="OG5" s="0"/>
+      <c r="OH5" s="0"/>
+      <c r="OI5" s="0"/>
+      <c r="OJ5" s="0"/>
+      <c r="OK5" s="0"/>
+      <c r="OL5" s="0"/>
+      <c r="OM5" s="0"/>
+      <c r="ON5" s="0"/>
+      <c r="OO5" s="0"/>
+      <c r="OP5" s="0"/>
+      <c r="OQ5" s="0"/>
+      <c r="OR5" s="0"/>
+      <c r="OS5" s="0"/>
+      <c r="OT5" s="0"/>
+      <c r="OU5" s="0"/>
+      <c r="OV5" s="0"/>
+      <c r="OW5" s="0"/>
+      <c r="OX5" s="0"/>
+      <c r="OY5" s="0"/>
+      <c r="OZ5" s="0"/>
+      <c r="PA5" s="0"/>
+      <c r="PB5" s="0"/>
+      <c r="PC5" s="0"/>
+      <c r="PD5" s="0"/>
+      <c r="PE5" s="0"/>
+      <c r="PF5" s="0"/>
+      <c r="PG5" s="0"/>
+      <c r="PH5" s="0"/>
+      <c r="PI5" s="0"/>
+      <c r="PJ5" s="0"/>
+      <c r="PK5" s="0"/>
+      <c r="PL5" s="0"/>
+      <c r="PM5" s="0"/>
+      <c r="PN5" s="0"/>
+      <c r="PO5" s="0"/>
+      <c r="PP5" s="0"/>
+      <c r="PQ5" s="0"/>
+      <c r="PR5" s="0"/>
+      <c r="PS5" s="0"/>
+      <c r="PT5" s="0"/>
+      <c r="PU5" s="0"/>
+      <c r="PV5" s="0"/>
+      <c r="PW5" s="0"/>
+      <c r="PX5" s="0"/>
+      <c r="PY5" s="0"/>
+      <c r="PZ5" s="0"/>
+      <c r="QA5" s="0"/>
+      <c r="QB5" s="0"/>
+      <c r="QC5" s="0"/>
+      <c r="QD5" s="0"/>
+      <c r="QE5" s="0"/>
+      <c r="QF5" s="0"/>
+      <c r="QG5" s="0"/>
+      <c r="QH5" s="0"/>
+      <c r="QI5" s="0"/>
+      <c r="QJ5" s="0"/>
+      <c r="QK5" s="0"/>
+      <c r="QL5" s="0"/>
+      <c r="QM5" s="0"/>
+      <c r="QN5" s="0"/>
+      <c r="QO5" s="0"/>
+      <c r="QP5" s="0"/>
+      <c r="QQ5" s="0"/>
+      <c r="QR5" s="0"/>
+      <c r="QS5" s="0"/>
+      <c r="QT5" s="0"/>
+      <c r="QU5" s="0"/>
+      <c r="QV5" s="0"/>
+      <c r="QW5" s="0"/>
+      <c r="QX5" s="0"/>
+      <c r="QY5" s="0"/>
+      <c r="QZ5" s="0"/>
+      <c r="RA5" s="0"/>
+      <c r="RB5" s="0"/>
+      <c r="RC5" s="0"/>
+      <c r="RD5" s="0"/>
+      <c r="RE5" s="0"/>
+      <c r="RF5" s="0"/>
+      <c r="RG5" s="0"/>
+      <c r="RH5" s="0"/>
+      <c r="RI5" s="0"/>
+      <c r="RJ5" s="0"/>
+      <c r="RK5" s="0"/>
+      <c r="RL5" s="0"/>
+      <c r="RM5" s="0"/>
+      <c r="RN5" s="0"/>
+      <c r="RO5" s="0"/>
+      <c r="RP5" s="0"/>
+      <c r="RQ5" s="0"/>
+      <c r="RR5" s="0"/>
+      <c r="RS5" s="0"/>
+      <c r="RT5" s="0"/>
+      <c r="RU5" s="0"/>
+      <c r="RV5" s="0"/>
+      <c r="RW5" s="0"/>
+      <c r="RX5" s="0"/>
+      <c r="RY5" s="0"/>
+      <c r="RZ5" s="0"/>
+      <c r="SA5" s="0"/>
+      <c r="SB5" s="0"/>
+      <c r="SC5" s="0"/>
+      <c r="SD5" s="0"/>
+      <c r="SE5" s="0"/>
+      <c r="SF5" s="0"/>
+      <c r="SG5" s="0"/>
+      <c r="SH5" s="0"/>
+      <c r="SI5" s="0"/>
+      <c r="SJ5" s="0"/>
+      <c r="SK5" s="0"/>
+      <c r="SL5" s="0"/>
+      <c r="SM5" s="0"/>
+      <c r="SN5" s="0"/>
+      <c r="SO5" s="0"/>
+      <c r="SP5" s="0"/>
+      <c r="SQ5" s="0"/>
+      <c r="SR5" s="0"/>
+      <c r="SS5" s="0"/>
+      <c r="ST5" s="0"/>
+      <c r="SU5" s="0"/>
+      <c r="SV5" s="0"/>
+      <c r="SW5" s="0"/>
+      <c r="SX5" s="0"/>
+      <c r="SY5" s="0"/>
+      <c r="SZ5" s="0"/>
+      <c r="TA5" s="0"/>
+      <c r="TB5" s="0"/>
+      <c r="TC5" s="0"/>
+      <c r="TD5" s="0"/>
+      <c r="TE5" s="0"/>
+      <c r="TF5" s="0"/>
+      <c r="TG5" s="0"/>
+      <c r="TH5" s="0"/>
+      <c r="TI5" s="0"/>
+      <c r="TJ5" s="0"/>
+      <c r="TK5" s="0"/>
+      <c r="TL5" s="0"/>
+      <c r="TM5" s="0"/>
+      <c r="TN5" s="0"/>
+      <c r="TO5" s="0"/>
+      <c r="TP5" s="0"/>
+      <c r="TQ5" s="0"/>
+      <c r="TR5" s="0"/>
+      <c r="TS5" s="0"/>
+      <c r="TT5" s="0"/>
+      <c r="TU5" s="0"/>
+      <c r="TV5" s="0"/>
+      <c r="TW5" s="0"/>
+      <c r="TX5" s="0"/>
+      <c r="TY5" s="0"/>
+      <c r="TZ5" s="0"/>
+      <c r="UA5" s="0"/>
+      <c r="UB5" s="0"/>
+      <c r="UC5" s="0"/>
+      <c r="UD5" s="0"/>
+      <c r="UE5" s="0"/>
+      <c r="UF5" s="0"/>
+      <c r="UG5" s="0"/>
+      <c r="UH5" s="0"/>
+      <c r="UI5" s="0"/>
+      <c r="UJ5" s="0"/>
+      <c r="UK5" s="0"/>
+      <c r="UL5" s="0"/>
+      <c r="UM5" s="0"/>
+      <c r="UN5" s="0"/>
+      <c r="UO5" s="0"/>
+      <c r="UP5" s="0"/>
+      <c r="UQ5" s="0"/>
+      <c r="UR5" s="0"/>
+      <c r="US5" s="0"/>
+      <c r="UT5" s="0"/>
+      <c r="UU5" s="0"/>
+      <c r="UV5" s="0"/>
+      <c r="UW5" s="0"/>
+      <c r="UX5" s="0"/>
+      <c r="UY5" s="0"/>
+      <c r="UZ5" s="0"/>
+      <c r="VA5" s="0"/>
+      <c r="VB5" s="0"/>
+      <c r="VC5" s="0"/>
+      <c r="VD5" s="0"/>
+      <c r="VE5" s="0"/>
+      <c r="VF5" s="0"/>
+      <c r="VG5" s="0"/>
+      <c r="VH5" s="0"/>
+      <c r="VI5" s="0"/>
+      <c r="VJ5" s="0"/>
+      <c r="VK5" s="0"/>
+      <c r="VL5" s="0"/>
+      <c r="VM5" s="0"/>
+      <c r="VN5" s="0"/>
+      <c r="VO5" s="0"/>
+      <c r="VP5" s="0"/>
+      <c r="VQ5" s="0"/>
+      <c r="VR5" s="0"/>
+      <c r="VS5" s="0"/>
+      <c r="VT5" s="0"/>
+      <c r="VU5" s="0"/>
+      <c r="VV5" s="0"/>
+      <c r="VW5" s="0"/>
+      <c r="VX5" s="0"/>
+      <c r="VY5" s="0"/>
+      <c r="VZ5" s="0"/>
+      <c r="WA5" s="0"/>
+      <c r="WB5" s="0"/>
+      <c r="WC5" s="0"/>
+      <c r="WD5" s="0"/>
+      <c r="WE5" s="0"/>
+      <c r="WF5" s="0"/>
+      <c r="WG5" s="0"/>
+      <c r="WH5" s="0"/>
+      <c r="WI5" s="0"/>
+      <c r="WJ5" s="0"/>
+      <c r="WK5" s="0"/>
+      <c r="WL5" s="0"/>
+      <c r="WM5" s="0"/>
+      <c r="WN5" s="0"/>
+      <c r="WO5" s="0"/>
+      <c r="WP5" s="0"/>
+      <c r="WQ5" s="0"/>
+      <c r="WR5" s="0"/>
+      <c r="WS5" s="0"/>
+      <c r="WT5" s="0"/>
+      <c r="WU5" s="0"/>
+      <c r="WV5" s="0"/>
+      <c r="WW5" s="0"/>
+      <c r="WX5" s="0"/>
+      <c r="WY5" s="0"/>
+      <c r="WZ5" s="0"/>
+      <c r="XA5" s="0"/>
+      <c r="XB5" s="0"/>
+      <c r="XC5" s="0"/>
+      <c r="XD5" s="0"/>
+      <c r="XE5" s="0"/>
+      <c r="XF5" s="0"/>
+      <c r="XG5" s="0"/>
+      <c r="XH5" s="0"/>
+      <c r="XI5" s="0"/>
+      <c r="XJ5" s="0"/>
+      <c r="XK5" s="0"/>
+      <c r="XL5" s="0"/>
+      <c r="XM5" s="0"/>
+      <c r="XN5" s="0"/>
+      <c r="XO5" s="0"/>
+      <c r="XP5" s="0"/>
+      <c r="XQ5" s="0"/>
+      <c r="XR5" s="0"/>
+      <c r="XS5" s="0"/>
+      <c r="XT5" s="0"/>
+      <c r="XU5" s="0"/>
+      <c r="XV5" s="0"/>
+      <c r="XW5" s="0"/>
+      <c r="XX5" s="0"/>
+      <c r="XY5" s="0"/>
+      <c r="XZ5" s="0"/>
+      <c r="YA5" s="0"/>
+      <c r="YB5" s="0"/>
+      <c r="YC5" s="0"/>
+      <c r="YD5" s="0"/>
+      <c r="YE5" s="0"/>
+      <c r="YF5" s="0"/>
+      <c r="YG5" s="0"/>
+      <c r="YH5" s="0"/>
+      <c r="YI5" s="0"/>
+      <c r="YJ5" s="0"/>
+      <c r="YK5" s="0"/>
+      <c r="YL5" s="0"/>
+      <c r="YM5" s="0"/>
+      <c r="YN5" s="0"/>
+      <c r="YO5" s="0"/>
+      <c r="YP5" s="0"/>
+      <c r="YQ5" s="0"/>
+      <c r="YR5" s="0"/>
+      <c r="YS5" s="0"/>
+      <c r="YT5" s="0"/>
+      <c r="YU5" s="0"/>
+      <c r="YV5" s="0"/>
+      <c r="YW5" s="0"/>
+      <c r="YX5" s="0"/>
+      <c r="YY5" s="0"/>
+      <c r="YZ5" s="0"/>
+      <c r="ZA5" s="0"/>
+      <c r="ZB5" s="0"/>
+      <c r="ZC5" s="0"/>
+      <c r="ZD5" s="0"/>
+      <c r="ZE5" s="0"/>
+      <c r="ZF5" s="0"/>
+      <c r="ZG5" s="0"/>
+      <c r="ZH5" s="0"/>
+      <c r="ZI5" s="0"/>
+      <c r="ZJ5" s="0"/>
+      <c r="ZK5" s="0"/>
+      <c r="ZL5" s="0"/>
+      <c r="ZM5" s="0"/>
+      <c r="ZN5" s="0"/>
+      <c r="ZO5" s="0"/>
+      <c r="ZP5" s="0"/>
+      <c r="ZQ5" s="0"/>
+      <c r="ZR5" s="0"/>
+      <c r="ZS5" s="0"/>
+      <c r="ZT5" s="0"/>
+      <c r="ZU5" s="0"/>
+      <c r="ZV5" s="0"/>
+      <c r="ZW5" s="0"/>
+      <c r="ZX5" s="0"/>
+      <c r="ZY5" s="0"/>
+      <c r="ZZ5" s="0"/>
+      <c r="AAA5" s="0"/>
+      <c r="AAB5" s="0"/>
+      <c r="AAC5" s="0"/>
+      <c r="AAD5" s="0"/>
+      <c r="AAE5" s="0"/>
+      <c r="AAF5" s="0"/>
+      <c r="AAG5" s="0"/>
+      <c r="AAH5" s="0"/>
+      <c r="AAI5" s="0"/>
+      <c r="AAJ5" s="0"/>
+      <c r="AAK5" s="0"/>
+      <c r="AAL5" s="0"/>
+      <c r="AAM5" s="0"/>
+      <c r="AAN5" s="0"/>
+      <c r="AAO5" s="0"/>
+      <c r="AAP5" s="0"/>
+      <c r="AAQ5" s="0"/>
+      <c r="AAR5" s="0"/>
+      <c r="AAS5" s="0"/>
+      <c r="AAT5" s="0"/>
+      <c r="AAU5" s="0"/>
+      <c r="AAV5" s="0"/>
+      <c r="AAW5" s="0"/>
+      <c r="AAX5" s="0"/>
+      <c r="AAY5" s="0"/>
+      <c r="AAZ5" s="0"/>
+      <c r="ABA5" s="0"/>
+      <c r="ABB5" s="0"/>
+      <c r="ABC5" s="0"/>
+      <c r="ABD5" s="0"/>
+      <c r="ABE5" s="0"/>
+      <c r="ABF5" s="0"/>
+      <c r="ABG5" s="0"/>
+      <c r="ABH5" s="0"/>
+      <c r="ABI5" s="0"/>
+      <c r="ABJ5" s="0"/>
+      <c r="ABK5" s="0"/>
+      <c r="ABL5" s="0"/>
+      <c r="ABM5" s="0"/>
+      <c r="ABN5" s="0"/>
+      <c r="ABO5" s="0"/>
+      <c r="ABP5" s="0"/>
+      <c r="ABQ5" s="0"/>
+      <c r="ABR5" s="0"/>
+      <c r="ABS5" s="0"/>
+      <c r="ABT5" s="0"/>
+      <c r="ABU5" s="0"/>
+      <c r="ABV5" s="0"/>
+      <c r="ABW5" s="0"/>
+      <c r="ABX5" s="0"/>
+      <c r="ABY5" s="0"/>
+      <c r="ABZ5" s="0"/>
+      <c r="ACA5" s="0"/>
+      <c r="ACB5" s="0"/>
+      <c r="ACC5" s="0"/>
+      <c r="ACD5" s="0"/>
+      <c r="ACE5" s="0"/>
+      <c r="ACF5" s="0"/>
+      <c r="ACG5" s="0"/>
+      <c r="ACH5" s="0"/>
+      <c r="ACI5" s="0"/>
+      <c r="ACJ5" s="0"/>
+      <c r="ACK5" s="0"/>
+      <c r="ACL5" s="0"/>
+      <c r="ACM5" s="0"/>
+      <c r="ACN5" s="0"/>
+      <c r="ACO5" s="0"/>
+      <c r="ACP5" s="0"/>
+      <c r="ACQ5" s="0"/>
+      <c r="ACR5" s="0"/>
+      <c r="ACS5" s="0"/>
+      <c r="ACT5" s="0"/>
+      <c r="ACU5" s="0"/>
+      <c r="ACV5" s="0"/>
+      <c r="ACW5" s="0"/>
+      <c r="ACX5" s="0"/>
+      <c r="ACY5" s="0"/>
+      <c r="ACZ5" s="0"/>
+      <c r="ADA5" s="0"/>
+      <c r="ADB5" s="0"/>
+      <c r="ADC5" s="0"/>
+      <c r="ADD5" s="0"/>
+      <c r="ADE5" s="0"/>
+      <c r="ADF5" s="0"/>
+      <c r="ADG5" s="0"/>
+      <c r="ADH5" s="0"/>
+      <c r="ADI5" s="0"/>
+      <c r="ADJ5" s="0"/>
+      <c r="ADK5" s="0"/>
+      <c r="ADL5" s="0"/>
+      <c r="ADM5" s="0"/>
+      <c r="ADN5" s="0"/>
+      <c r="ADO5" s="0"/>
+      <c r="ADP5" s="0"/>
+      <c r="ADQ5" s="0"/>
+      <c r="ADR5" s="0"/>
+      <c r="ADS5" s="0"/>
+      <c r="ADT5" s="0"/>
+      <c r="ADU5" s="0"/>
+      <c r="ADV5" s="0"/>
+      <c r="ADW5" s="0"/>
+      <c r="ADX5" s="0"/>
+      <c r="ADY5" s="0"/>
+      <c r="ADZ5" s="0"/>
+      <c r="AEA5" s="0"/>
+      <c r="AEB5" s="0"/>
+      <c r="AEC5" s="0"/>
+      <c r="AED5" s="0"/>
+      <c r="AEE5" s="0"/>
+      <c r="AEF5" s="0"/>
+      <c r="AEG5" s="0"/>
+      <c r="AEH5" s="0"/>
+      <c r="AEI5" s="0"/>
+      <c r="AEJ5" s="0"/>
+      <c r="AEK5" s="0"/>
+      <c r="AEL5" s="0"/>
+      <c r="AEM5" s="0"/>
+      <c r="AEN5" s="0"/>
+      <c r="AEO5" s="0"/>
+      <c r="AEP5" s="0"/>
+      <c r="AEQ5" s="0"/>
+      <c r="AER5" s="0"/>
+      <c r="AES5" s="0"/>
+      <c r="AET5" s="0"/>
+      <c r="AEU5" s="0"/>
+      <c r="AEV5" s="0"/>
+      <c r="AEW5" s="0"/>
+      <c r="AEX5" s="0"/>
+      <c r="AEY5" s="0"/>
+      <c r="AEZ5" s="0"/>
+      <c r="AFA5" s="0"/>
+      <c r="AFB5" s="0"/>
+      <c r="AFC5" s="0"/>
+      <c r="AFD5" s="0"/>
+      <c r="AFE5" s="0"/>
+      <c r="AFF5" s="0"/>
+      <c r="AFG5" s="0"/>
+      <c r="AFH5" s="0"/>
+      <c r="AFI5" s="0"/>
+      <c r="AFJ5" s="0"/>
+      <c r="AFK5" s="0"/>
+      <c r="AFL5" s="0"/>
+      <c r="AFM5" s="0"/>
+      <c r="AFN5" s="0"/>
+      <c r="AFO5" s="0"/>
+      <c r="AFP5" s="0"/>
+      <c r="AFQ5" s="0"/>
+      <c r="AFR5" s="0"/>
+      <c r="AFS5" s="0"/>
+      <c r="AFT5" s="0"/>
+      <c r="AFU5" s="0"/>
+      <c r="AFV5" s="0"/>
+      <c r="AFW5" s="0"/>
+      <c r="AFX5" s="0"/>
+      <c r="AFY5" s="0"/>
+      <c r="AFZ5" s="0"/>
+      <c r="AGA5" s="0"/>
+      <c r="AGB5" s="0"/>
+      <c r="AGC5" s="0"/>
+      <c r="AGD5" s="0"/>
+      <c r="AGE5" s="0"/>
+      <c r="AGF5" s="0"/>
+      <c r="AGG5" s="0"/>
+      <c r="AGH5" s="0"/>
+      <c r="AGI5" s="0"/>
+      <c r="AGJ5" s="0"/>
+      <c r="AGK5" s="0"/>
+      <c r="AGL5" s="0"/>
+      <c r="AGM5" s="0"/>
+      <c r="AGN5" s="0"/>
+      <c r="AGO5" s="0"/>
+      <c r="AGP5" s="0"/>
+      <c r="AGQ5" s="0"/>
+      <c r="AGR5" s="0"/>
+      <c r="AGS5" s="0"/>
+      <c r="AGT5" s="0"/>
+      <c r="AGU5" s="0"/>
+      <c r="AGV5" s="0"/>
+      <c r="AGW5" s="0"/>
+      <c r="AGX5" s="0"/>
+      <c r="AGY5" s="0"/>
+      <c r="AGZ5" s="0"/>
+      <c r="AHA5" s="0"/>
+      <c r="AHB5" s="0"/>
+      <c r="AHC5" s="0"/>
+      <c r="AHD5" s="0"/>
+      <c r="AHE5" s="0"/>
+      <c r="AHF5" s="0"/>
+      <c r="AHG5" s="0"/>
+      <c r="AHH5" s="0"/>
+      <c r="AHI5" s="0"/>
+      <c r="AHJ5" s="0"/>
+      <c r="AHK5" s="0"/>
+      <c r="AHL5" s="0"/>
+      <c r="AHM5" s="0"/>
+      <c r="AHN5" s="0"/>
+      <c r="AHO5" s="0"/>
+      <c r="AHP5" s="0"/>
+      <c r="AHQ5" s="0"/>
+      <c r="AHR5" s="0"/>
+      <c r="AHS5" s="0"/>
+      <c r="AHT5" s="0"/>
+      <c r="AHU5" s="0"/>
+      <c r="AHV5" s="0"/>
+      <c r="AHW5" s="0"/>
+      <c r="AHX5" s="0"/>
+      <c r="AHY5" s="0"/>
+      <c r="AHZ5" s="0"/>
+      <c r="AIA5" s="0"/>
+      <c r="AIB5" s="0"/>
+      <c r="AIC5" s="0"/>
+      <c r="AID5" s="0"/>
+      <c r="AIE5" s="0"/>
+      <c r="AIF5" s="0"/>
+      <c r="AIG5" s="0"/>
+      <c r="AIH5" s="0"/>
+      <c r="AII5" s="0"/>
+      <c r="AIJ5" s="0"/>
+      <c r="AIK5" s="0"/>
+      <c r="AIL5" s="0"/>
+      <c r="AIM5" s="0"/>
+      <c r="AIN5" s="0"/>
+      <c r="AIO5" s="0"/>
+      <c r="AIP5" s="0"/>
+      <c r="AIQ5" s="0"/>
+      <c r="AIR5" s="0"/>
+      <c r="AIS5" s="0"/>
+      <c r="AIT5" s="0"/>
+      <c r="AIU5" s="0"/>
+      <c r="AIV5" s="0"/>
+      <c r="AIW5" s="0"/>
+      <c r="AIX5" s="0"/>
+      <c r="AIY5" s="0"/>
+      <c r="AIZ5" s="0"/>
+      <c r="AJA5" s="0"/>
+      <c r="AJB5" s="0"/>
+      <c r="AJC5" s="0"/>
+      <c r="AJD5" s="0"/>
+      <c r="AJE5" s="0"/>
+      <c r="AJF5" s="0"/>
+      <c r="AJG5" s="0"/>
+      <c r="AJH5" s="0"/>
+      <c r="AJI5" s="0"/>
+      <c r="AJJ5" s="0"/>
+      <c r="AJK5" s="0"/>
+      <c r="AJL5" s="0"/>
+      <c r="AJM5" s="0"/>
+      <c r="AJN5" s="0"/>
+      <c r="AJO5" s="0"/>
+      <c r="AJP5" s="0"/>
+      <c r="AJQ5" s="0"/>
+      <c r="AJR5" s="0"/>
+      <c r="AJS5" s="0"/>
+      <c r="AJT5" s="0"/>
+      <c r="AJU5" s="0"/>
+      <c r="AJV5" s="0"/>
+      <c r="AJW5" s="0"/>
+      <c r="AJX5" s="0"/>
+      <c r="AJY5" s="0"/>
+      <c r="AJZ5" s="0"/>
+      <c r="AKA5" s="0"/>
+      <c r="AKB5" s="0"/>
+      <c r="AKC5" s="0"/>
+      <c r="AKD5" s="0"/>
+      <c r="AKE5" s="0"/>
+      <c r="AKF5" s="0"/>
+      <c r="AKG5" s="0"/>
+      <c r="AKH5" s="0"/>
+      <c r="AKI5" s="0"/>
+      <c r="AKJ5" s="0"/>
+      <c r="AKK5" s="0"/>
+      <c r="AKL5" s="0"/>
+      <c r="AKM5" s="0"/>
+      <c r="AKN5" s="0"/>
+      <c r="AKO5" s="0"/>
+      <c r="AKP5" s="0"/>
+      <c r="AKQ5" s="0"/>
+      <c r="AKR5" s="0"/>
+      <c r="AKS5" s="0"/>
+      <c r="AKT5" s="0"/>
+      <c r="AKU5" s="0"/>
+      <c r="AKV5" s="0"/>
+      <c r="AKW5" s="0"/>
+      <c r="AKX5" s="0"/>
+      <c r="AKY5" s="0"/>
+      <c r="AKZ5" s="0"/>
+      <c r="ALA5" s="0"/>
+      <c r="ALB5" s="0"/>
+      <c r="ALC5" s="0"/>
+      <c r="ALD5" s="0"/>
+      <c r="ALE5" s="0"/>
+      <c r="ALF5" s="0"/>
+      <c r="ALG5" s="0"/>
+      <c r="ALH5" s="0"/>
+      <c r="ALI5" s="0"/>
+      <c r="ALJ5" s="0"/>
+      <c r="ALK5" s="0"/>
+      <c r="ALL5" s="0"/>
+      <c r="ALM5" s="0"/>
+      <c r="ALN5" s="0"/>
+      <c r="ALO5" s="0"/>
+      <c r="ALP5" s="0"/>
+      <c r="ALQ5" s="0"/>
+      <c r="ALR5" s="0"/>
+      <c r="ALS5" s="0"/>
+      <c r="ALT5" s="0"/>
+      <c r="ALU5" s="0"/>
+      <c r="ALV5" s="0"/>
+      <c r="ALW5" s="0"/>
+      <c r="ALX5" s="0"/>
+      <c r="ALY5" s="0"/>
+      <c r="ALZ5" s="0"/>
+      <c r="AMA5" s="0"/>
+      <c r="AMB5" s="0"/>
+      <c r="AMC5" s="0"/>
+      <c r="AMD5" s="0"/>
+      <c r="AME5" s="0"/>
+      <c r="AMF5" s="0"/>
+      <c r="AMG5" s="0"/>
+      <c r="AMH5" s="0"/>
+      <c r="AMI5" s="0"/>
+      <c r="AMJ5" s="0"/>
+    </row>
+    <row r="6" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
         <v>49</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C6" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>131</v>
-      </c>
       <c r="E6" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
       <c r="J6" s="10" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8160,31 +9204,31 @@
         <v>53</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C7" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="F7" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>131</v>
-      </c>
       <c r="G7" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -8211,14 +9255,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="15" width="56.2481481481481"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="15" width="15.2888888888889"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="15" width="10.7777777777778"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="15" width="14.4037037037037"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="15" width="12.4444444444444"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="15" width="13.9148148148148"/>
-    <col collapsed="false" hidden="false" max="1021" min="7" style="15" width="35.8666666666667"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.62222222222222"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="57.6222222222222"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="15.6777777777778"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="11.0740740740741"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="14.7"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="12.6407407407407"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="14.2074074074074"/>
+    <col collapsed="false" hidden="false" max="1021" min="7" style="13" width="36.7481481481481"/>
+    <col collapsed="false" hidden="false" max="1023" min="1022" style="0" width="8.62222222222222"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.81851851851852"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8226,16 +9271,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>42</v>
@@ -8246,15 +9291,15 @@
         <v>37</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
-      <c r="F2" s="18" t="s">
-        <v>137</v>
+      <c r="F2" s="10" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8262,15 +9307,15 @@
         <v>39</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
-      <c r="F3" s="18" t="s">
-        <v>176</v>
+      <c r="F3" s="10" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8278,15 +9323,15 @@
         <v>40</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
-      <c r="F4" s="18" t="s">
-        <v>138</v>
+      <c r="F4" s="10" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8294,15 +9339,15 @@
         <v>41</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
-      <c r="F5" s="18" t="s">
-        <v>177</v>
+      <c r="F5" s="10" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8310,15 +9355,15 @@
         <v>43</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
-      <c r="F6" s="18" t="s">
-        <v>178</v>
+      <c r="F6" s="10" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8326,15 +9371,15 @@
         <v>44</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
-      <c r="F7" s="18" t="s">
-        <v>179</v>
+      <c r="F7" s="10" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8342,20 +9387,20 @@
         <v>45</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="18" t="s">
-        <v>180</v>
+      <c r="F8" s="10" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>152</v>
@@ -8369,13 +9414,13 @@
       <c r="E9" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="F9" s="18" t="s">
-        <v>177</v>
+      <c r="F9" s="10" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>152</v>
@@ -8389,13 +9434,13 @@
       <c r="E10" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="F10" s="18" t="s">
-        <v>179</v>
+      <c r="F10" s="10" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>152</v>
@@ -8409,13 +9454,13 @@
       <c r="E11" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="F11" s="18" t="s">
-        <v>180</v>
+      <c r="F11" s="10" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>152</v>
@@ -8429,13 +9474,13 @@
       <c r="E12" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="F12" s="18" t="s">
-        <v>177</v>
+      <c r="F12" s="10" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>152</v>
@@ -8449,13 +9494,13 @@
       <c r="E13" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="F13" s="18" t="s">
-        <v>179</v>
+      <c r="F13" s="10" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>152</v>
@@ -8469,396 +9514,396 @@
       <c r="E14" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="F14" s="18" t="s">
-        <v>180</v>
+      <c r="F14" s="10" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
-      <c r="F15" s="18" t="s">
-        <v>177</v>
+      <c r="F15" s="10" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
-      <c r="F16" s="18" t="s">
-        <v>179</v>
+      <c r="F16" s="10" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
-      <c r="F17" s="18" t="s">
-        <v>180</v>
+      <c r="F17" s="10" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>137</v>
+        <v>122</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>138</v>
+        <v>122</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>176</v>
+        <v>122</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>137</v>
+        <v>124</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="F22" s="18" t="s">
-        <v>138</v>
+        <v>124</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="F23" s="18" t="s">
-        <v>176</v>
+        <v>124</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="F24" s="18" t="s">
-        <v>177</v>
+        <v>122</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="F25" s="18" t="s">
-        <v>178</v>
+        <v>122</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="F26" s="18" t="s">
-        <v>179</v>
+        <v>122</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="F27" s="18" t="s">
-        <v>180</v>
+        <v>122</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="F28" s="18" t="s">
-        <v>177</v>
+        <v>124</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="F29" s="18" t="s">
-        <v>178</v>
+        <v>124</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="F30" s="18" t="s">
-        <v>179</v>
+        <v>124</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="F31" s="18" t="s">
-        <v>180</v>
+        <v>124</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="F32" s="18" t="s">
-        <v>177</v>
+        <v>169</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="F33" s="18" t="s">
-        <v>179</v>
+        <v>169</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="F34" s="18" t="s">
-        <v>180</v>
+        <v>169</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -8895,12 +9940,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="15" width="40.3740740740741"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="15" width="14.7962962962963"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="15" width="16.3666666666667"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="15" width="14.4037037037037"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="15" width="9.8962962962963"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="15" width="12.1518518518519"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="41.3518518518519"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="15.0925925925926"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="16.7555555555556"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="14.7"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="10.0925925925926"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="13" width="12.3481481481481"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8908,131 +9953,131 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="9" t="s">
         <v>46</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="9" t="s">
         <v>48</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="E3" s="17" t="s">
+      <c r="D3" s="10" t="s">
         <v>132</v>
       </c>
+      <c r="E3" s="9" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="17" t="s">
-        <v>107</v>
+      <c r="A4" s="9" t="s">
+        <v>108</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="B5" s="17" t="s">
+      <c r="C6" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="B6" s="18" t="s">
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="B8" s="18" t="s">
+      <c r="A8" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="9" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="B9" s="18" t="s">
+      <c r="A9" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="9" t="s">
         <v>155</v>
       </c>
     </row>
